--- a/Conocimiento/Metodología/Presupuesto_Plan_negocio.xlsx
+++ b/Conocimiento/Metodología/Presupuesto_Plan_negocio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agres\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agres\Desktop\ispp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5EBB59-2229-419F-BC74-6959EDB7CA67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53244535-2920-4C5B-8FA8-556C97FC9C31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{651E74E8-F1B3-4915-8AC1-5B0902A4A5DB}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Mes</t>
   </si>
@@ -318,6 +318,15 @@
   <si>
     <t>Total costs</t>
   </si>
+  <si>
+    <t>Presupuesto actual</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Directo(sueldos)</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +379,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +425,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -578,6 +599,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -712,40 +746,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6766.5</c:v>
+                  <c:v>7659.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.5</c:v>
+                  <c:v>14852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22553</c:v>
+                  <c:v>22044.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32040</c:v>
+                  <c:v>29237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34228.5</c:v>
+                  <c:v>32318.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36417</c:v>
+                  <c:v>35400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38605.5</c:v>
+                  <c:v>38481.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40794</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42982.5</c:v>
+                  <c:v>44644.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45171</c:v>
+                  <c:v>47726</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47359.5</c:v>
+                  <c:v>50807.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49548</c:v>
+                  <c:v>53889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,40 +998,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1240</c:v>
+                  <c:v>2133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3542.5</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6907.5</c:v>
+                  <c:v>6399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11335</c:v>
+                  <c:v>8532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11512.5</c:v>
+                  <c:v>9602.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11690</c:v>
+                  <c:v>10673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11867.5</c:v>
+                  <c:v>11743.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12045</c:v>
+                  <c:v>12814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12222.5</c:v>
+                  <c:v>13884.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12400</c:v>
+                  <c:v>14955</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12577.5</c:v>
+                  <c:v>16025.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12755</c:v>
+                  <c:v>17096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1389,291 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6764-40CB-A723-939B700DB2A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$R$3:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Directo(sueldos)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indirecto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$3:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="#,##0.00\ &quot;€&quot;">
+                  <c:v>20238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4282</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
+                  <c:v>4250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6764-40CB-A723-939B700DB2A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1892,6 +2210,525 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1944,6 +2781,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43897</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520147</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB37B9F8-2B9B-4D5E-B348-ED304157A8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2249,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644715EF-445F-4E73-B938-696EC84ACC4B}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,9 +3133,10 @@
     <col min="2" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2284,8 +3158,13 @@
       <c r="K1" s="29">
         <v>4250</v>
       </c>
+      <c r="R1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="35"/>
+      <c r="T1" s="34"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2310,8 +3189,14 @@
       <c r="K2">
         <v>4150</v>
       </c>
+      <c r="R2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2321,11 +3206,11 @@
       </c>
       <c r="C3" s="32">
         <f>$K$33+C2+$K$1/4*1</f>
-        <v>1240</v>
+        <v>2133</v>
       </c>
       <c r="D3" s="32">
         <f>(B3+C3)+$K$2/4*A3+467</f>
-        <v>6766.5</v>
+        <v>7659.5</v>
       </c>
       <c r="E3" s="29">
         <f>B38*200+C38*550+D38*700+F38*$K$3+E2</f>
@@ -2337,8 +3222,15 @@
       <c r="K3" s="29">
         <v>10</v>
       </c>
+      <c r="R3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="38">
+        <f>B6+K2</f>
+        <v>20238</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2347,19 +3239,26 @@
         <v>8044</v>
       </c>
       <c r="C4" s="32">
-        <f>$K$33+C3+$K$1/4*2</f>
-        <v>3542.5</v>
+        <f>$K$33+C3+$K$1/4</f>
+        <v>4266</v>
       </c>
       <c r="D4" s="32">
         <f>(B4+C4)+$K$2/4*A4+467</f>
-        <v>14128.5</v>
+        <v>14852</v>
       </c>
       <c r="E4" s="29">
         <f t="shared" ref="E4:E14" si="1">B39*200+C39*550+D39*700+F39*$K$3+E3</f>
         <v>0</v>
       </c>
+      <c r="R4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="39">
+        <f>$K$33*4</f>
+        <v>4282</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2368,19 +3267,26 @@
         <v>12066</v>
       </c>
       <c r="C5" s="32">
-        <f>$K$33+C4+$K$1/4*3</f>
-        <v>6907.5</v>
+        <f>$K$33+C4+$K$1/4</f>
+        <v>6399</v>
       </c>
       <c r="D5" s="32">
         <f>(B5+C5)+$K$2/4*A5+467</f>
-        <v>22553</v>
+        <v>22044.5</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="40">
+        <f>K1</f>
+        <v>4250</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2389,19 +3295,26 @@
         <v>16088</v>
       </c>
       <c r="C6" s="32">
-        <f>$K$33+C5+$K$1/4*4</f>
-        <v>11335</v>
+        <f>$K$33+C5+$K$1/4</f>
+        <v>8532</v>
       </c>
       <c r="D6" s="32">
         <f>(B6+C6)+$K$2/4*A6+467</f>
-        <v>32040</v>
+        <v>29237</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="41">
+        <f>S3+S4+S5</f>
+        <v>28770</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2411,18 +3324,18 @@
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:C14" si="2">$K$33+C6</f>
-        <v>11512.5</v>
+        <v>9602.5</v>
       </c>
       <c r="D7" s="32">
         <f t="shared" ref="D7:D14" si="3">(B7+C7)+$K$2+467</f>
-        <v>34228.5</v>
+        <v>32318.5</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2432,18 +3345,18 @@
       </c>
       <c r="C8" s="32">
         <f t="shared" si="2"/>
-        <v>11690</v>
+        <v>10673</v>
       </c>
       <c r="D8" s="32">
         <f t="shared" si="3"/>
-        <v>36417</v>
+        <v>35400</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="1"/>
         <v>4020</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2453,18 +3366,18 @@
       </c>
       <c r="C9" s="32">
         <f t="shared" si="2"/>
-        <v>11867.5</v>
+        <v>11743.5</v>
       </c>
       <c r="D9" s="32">
         <f t="shared" si="3"/>
-        <v>38605.5</v>
+        <v>38481.5</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="1"/>
         <v>8310</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2474,18 +3387,18 @@
       </c>
       <c r="C10" s="32">
         <f t="shared" si="2"/>
-        <v>12045</v>
+        <v>12814</v>
       </c>
       <c r="D10" s="32">
         <f t="shared" si="3"/>
-        <v>40794</v>
+        <v>41563</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="1"/>
         <v>14450</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2495,18 +3408,18 @@
       </c>
       <c r="C11" s="32">
         <f t="shared" si="2"/>
-        <v>12222.5</v>
+        <v>13884.5</v>
       </c>
       <c r="D11" s="32">
         <f t="shared" si="3"/>
-        <v>42982.5</v>
+        <v>44644.5</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="1"/>
         <v>24250</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2516,18 +3429,18 @@
       </c>
       <c r="C12" s="32">
         <f t="shared" si="2"/>
-        <v>12400</v>
+        <v>14955</v>
       </c>
       <c r="D12" s="32">
         <f t="shared" si="3"/>
-        <v>45171</v>
+        <v>47726</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="1"/>
         <v>37190</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2537,18 +3450,18 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="2"/>
-        <v>12577.5</v>
+        <v>16025.5</v>
       </c>
       <c r="D13" s="32">
         <f t="shared" si="3"/>
-        <v>47359.5</v>
+        <v>50807.5</v>
       </c>
       <c r="E13" s="29">
         <f t="shared" si="1"/>
         <v>53560</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2558,24 +3471,24 @@
       </c>
       <c r="C14" s="32">
         <f t="shared" si="2"/>
-        <v>12755</v>
+        <v>17096</v>
       </c>
       <c r="D14" s="32">
         <f t="shared" si="3"/>
-        <v>49548</v>
+        <v>53889</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="1"/>
         <v>73870</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
         <f>B14+C14</f>
-        <v>44931</v>
+        <v>49272</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2584,7 +3497,7 @@
       </c>
       <c r="C17" s="32">
         <f>C16+K1</f>
-        <v>49181</v>
+        <v>53522</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2593,7 +3506,7 @@
       </c>
       <c r="C18" s="32">
         <f>C14+K1</f>
-        <v>17005</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,8 +3672,8 @@
         <v>7</v>
       </c>
       <c r="J32" s="22">
-        <f>F32+G32</f>
-        <v>157</v>
+        <f>F32*G32</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2786,7 +3699,7 @@
       </c>
       <c r="K33" s="26">
         <f>J32+J33</f>
-        <v>177.5</v>
+        <v>1070.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3083,8 +3996,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A36:E36"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
